--- a/mosip_master/xlsx/zone.xlsx
+++ b/mosip_master/xlsx/zone.xlsx
@@ -1,16 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop_Branch_all\mosip-data\mosip_master\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$64</definedName>
+  </definedNames>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,275 +27,349 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="86">
-  <si>
-    <t xml:space="preserve">lang_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hierarchy_level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hierarchy_level_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hierarchy_path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parent_zone_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MyCountry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maroc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOR/NTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RabatSaleKenitra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOR/NTH/RSK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rabat-Salé-Kénitra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Région</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rabat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Province</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOR/NTH/RSK/RBT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenitra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOR/NTH/RSK/KTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kénitra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salé </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOR/NTH/RSK/SAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Casablanca-Settat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOR/NTH/CST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benslimane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOR/NTH/CST/BSN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Casablanca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOR/NTH/CST/CSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Settat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOR/NTH/CST/STT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oriental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOR/NTH/ORT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NDR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOR/NTH/ORT/NDR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berkane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOR/NTH/ORT/BRK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JRD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jerada </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOR/NTH/ORT/JRD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOR/STH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marrakesh-Safi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOR/STH/MRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Safi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOR/STH/MRS/SAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YSF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Youssoufia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOR/STH/MRS/YSF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Souss-Massa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOR/STH/SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sus-Massa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tata </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOR/STH/SOS/TTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiznit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOR/STH/SOS/TZT</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="112">
+  <si>
+    <t>lang_code</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>hierarchy_level</t>
+  </si>
+  <si>
+    <t>hierarchy_level_name</t>
+  </si>
+  <si>
+    <t>hierarchy_path</t>
+  </si>
+  <si>
+    <t>parent_zone_code</t>
+  </si>
+  <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>MOR</t>
+  </si>
+  <si>
+    <t>MyCountry</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>fra</t>
+  </si>
+  <si>
+    <t>Maroc</t>
+  </si>
+  <si>
+    <t>Pays</t>
+  </si>
+  <si>
+    <t>NTH</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>MOR/NTH</t>
+  </si>
+  <si>
+    <t>Nord</t>
+  </si>
+  <si>
+    <t>RSK</t>
+  </si>
+  <si>
+    <t>RabatSaleKenitra</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>MOR/NTH/RSK</t>
+  </si>
+  <si>
+    <t>Rabat-Salé-Kénitra</t>
+  </si>
+  <si>
+    <t>Région</t>
+  </si>
+  <si>
+    <t>RBT</t>
+  </si>
+  <si>
+    <t>Rabat</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>MOR/NTH/RSK/RBT</t>
+  </si>
+  <si>
+    <t>KTA</t>
+  </si>
+  <si>
+    <t>Kenitra</t>
+  </si>
+  <si>
+    <t>MOR/NTH/RSK/KTA</t>
+  </si>
+  <si>
+    <t>Kénitra</t>
+  </si>
+  <si>
+    <t>SAL</t>
+  </si>
+  <si>
+    <t>Salé </t>
+  </si>
+  <si>
+    <t>MOR/NTH/RSK/SAL</t>
+  </si>
+  <si>
+    <t>Sala</t>
+  </si>
+  <si>
+    <t>CST</t>
+  </si>
+  <si>
+    <t>Casablanca-Settat</t>
+  </si>
+  <si>
+    <t>MOR/NTH/CST</t>
+  </si>
+  <si>
+    <t>BSN</t>
+  </si>
+  <si>
+    <t>Benslimane</t>
+  </si>
+  <si>
+    <t>MOR/NTH/CST/BSN</t>
+  </si>
+  <si>
+    <t>CSB</t>
+  </si>
+  <si>
+    <t>Casablanca</t>
+  </si>
+  <si>
+    <t>MOR/NTH/CST/CSB</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Settat</t>
+  </si>
+  <si>
+    <t>MOR/NTH/CST/STT</t>
+  </si>
+  <si>
+    <t>ORT</t>
+  </si>
+  <si>
+    <t>Oriental</t>
+  </si>
+  <si>
+    <t>MOR/NTH/ORT</t>
+  </si>
+  <si>
+    <t>NDR</t>
+  </si>
+  <si>
+    <t>Nador</t>
+  </si>
+  <si>
+    <t>MOR/NTH/ORT/NDR</t>
+  </si>
+  <si>
+    <t>BRK</t>
+  </si>
+  <si>
+    <t>Berkane</t>
+  </si>
+  <si>
+    <t>MOR/NTH/ORT/BRK</t>
+  </si>
+  <si>
+    <t>JRD</t>
+  </si>
+  <si>
+    <t>Jerada </t>
+  </si>
+  <si>
+    <t>MOR/NTH/ORT/JRD</t>
+  </si>
+  <si>
+    <t>STH</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>MOR/STH</t>
+  </si>
+  <si>
+    <t>Sud</t>
+  </si>
+  <si>
+    <t>MRS</t>
+  </si>
+  <si>
+    <t>Marrakesh-Safi</t>
+  </si>
+  <si>
+    <t>MOR/STH/MRS</t>
+  </si>
+  <si>
+    <t>SAF</t>
+  </si>
+  <si>
+    <t>Safi </t>
+  </si>
+  <si>
+    <t>MOR/STH/MRS/SAF</t>
+  </si>
+  <si>
+    <t>YSF</t>
+  </si>
+  <si>
+    <t>Youssoufia </t>
+  </si>
+  <si>
+    <t>MOR/STH/MRS/YSF</t>
+  </si>
+  <si>
+    <t>SOS</t>
+  </si>
+  <si>
+    <t>Souss-Massa</t>
+  </si>
+  <si>
+    <t>MOR/STH/SOS</t>
+  </si>
+  <si>
+    <t>Sus-Massa</t>
+  </si>
+  <si>
+    <t>TTA</t>
+  </si>
+  <si>
+    <t>Tata </t>
+  </si>
+  <si>
+    <t>MOR/STH/SOS/TTA</t>
+  </si>
+  <si>
+    <t>TZT</t>
+  </si>
+  <si>
+    <t>Tiznit</t>
+  </si>
+  <si>
+    <t>MOR/STH/SOS/TZT</t>
+  </si>
+  <si>
+    <t>ara</t>
+  </si>
+  <si>
+    <t>مايكونتري</t>
+  </si>
+  <si>
+    <t>شمال</t>
+  </si>
+  <si>
+    <t>الرباط ساليالقنيطرة</t>
+  </si>
+  <si>
+    <t>الرباط</t>
+  </si>
+  <si>
+    <t>القنيطرة</t>
+  </si>
+  <si>
+    <t>قذر</t>
+  </si>
+  <si>
+    <t>الدار البيضاء سطات</t>
+  </si>
+  <si>
+    <t>بن سليمان</t>
+  </si>
+  <si>
+    <t>الدار البيضاء</t>
+  </si>
+  <si>
+    <t>سطات</t>
+  </si>
+  <si>
+    <t>شرقية</t>
+  </si>
+  <si>
+    <t>الناظور</t>
+  </si>
+  <si>
+    <t>بركان</t>
+  </si>
+  <si>
+    <t>جرادة</t>
+  </si>
+  <si>
+    <t>جنوب</t>
+  </si>
+  <si>
+    <t>مراكشصف</t>
+  </si>
+  <si>
+    <t>صافي</t>
+  </si>
+  <si>
+    <t>اليوسفية</t>
+  </si>
+  <si>
+    <t>سوس ماسة</t>
+  </si>
+  <si>
+    <t>تاتا</t>
+  </si>
+  <si>
+    <t>تزنيت</t>
+  </si>
+  <si>
+    <t>دولة</t>
+  </si>
+  <si>
+    <t>اتجاه</t>
+  </si>
+  <si>
+    <t>منطقة</t>
+  </si>
+  <si>
+    <t>مقاطعة</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -297,25 +378,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -327,97 +392,408 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="6">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.43"/>
+    <col min="3" max="3" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -427,13 +803,13 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -443,7 +819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -453,10 +829,10 @@
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="4">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -466,7 +842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -476,10 +852,10 @@
       <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -489,7 +865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -499,10 +875,10 @@
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -515,7 +891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -525,10 +901,10 @@
       <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -541,7 +917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -551,10 +927,10 @@
       <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -567,7 +943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -577,10 +953,10 @@
       <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -593,7 +969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -603,10 +979,10 @@
       <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="4">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -619,7 +995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -629,10 +1005,10 @@
       <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="4">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -645,7 +1021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -655,10 +1031,10 @@
       <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -671,7 +1047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -681,10 +1057,10 @@
       <c r="C11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -697,7 +1073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -707,10 +1083,10 @@
       <c r="C12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="4">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -723,7 +1099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -733,10 +1109,10 @@
       <c r="C13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -749,7 +1125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -759,10 +1135,10 @@
       <c r="C14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="4">
         <v>2</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -775,7 +1151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -785,10 +1161,10 @@
       <c r="C15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="4">
         <v>2</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -801,7 +1177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
@@ -811,10 +1187,10 @@
       <c r="C16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="4">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -827,7 +1203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
@@ -837,10 +1213,10 @@
       <c r="C17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="4">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -853,7 +1229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
@@ -863,10 +1239,10 @@
       <c r="C18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="4">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -879,7 +1255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -889,10 +1265,10 @@
       <c r="C19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="4">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -905,7 +1281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
@@ -915,10 +1291,10 @@
       <c r="C20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="4">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -931,7 +1307,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
@@ -941,10 +1317,10 @@
       <c r="C21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="4">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -957,7 +1333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
@@ -967,10 +1343,10 @@
       <c r="C22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="4">
         <v>2</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F22" s="4" t="s">
@@ -983,7 +1359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
@@ -993,10 +1369,10 @@
       <c r="C23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="4">
         <v>2</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -1009,7 +1385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
@@ -1019,10 +1395,10 @@
       <c r="C24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="D24" s="4">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F24" s="4" t="s">
@@ -1035,7 +1411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
@@ -1045,10 +1421,10 @@
       <c r="C25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="4">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -1061,7 +1437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>8</v>
       </c>
@@ -1071,10 +1447,10 @@
       <c r="C26" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="D26" s="4">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="4" t="s">
@@ -1087,7 +1463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>13</v>
       </c>
@@ -1097,10 +1473,10 @@
       <c r="C27" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="D27" s="4">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -1113,7 +1489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>8</v>
       </c>
@@ -1123,10 +1499,10 @@
       <c r="C28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="D28" s="4">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -1139,7 +1515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>13</v>
       </c>
@@ -1149,10 +1525,10 @@
       <c r="C29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="D29" s="4">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F29" s="4" t="s">
@@ -1165,7 +1541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
@@ -1175,10 +1551,10 @@
       <c r="C30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="4">
         <v>1</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F30" s="4" t="s">
@@ -1191,7 +1567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>13</v>
       </c>
@@ -1201,10 +1577,10 @@
       <c r="C31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="4">
         <v>1</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F31" s="4" t="s">
@@ -1217,7 +1593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>8</v>
       </c>
@@ -1227,10 +1603,10 @@
       <c r="C32" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D32" s="4">
         <v>2</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F32" s="4" t="s">
@@ -1243,7 +1619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>13</v>
       </c>
@@ -1253,10 +1629,10 @@
       <c r="C33" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D33" s="4">
         <v>2</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F33" s="4" t="s">
@@ -1269,7 +1645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>8</v>
       </c>
@@ -1279,10 +1655,10 @@
       <c r="C34" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E34" s="4" t="s">
+      <c r="D34" s="4">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F34" s="4" t="s">
@@ -1295,7 +1671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>13</v>
       </c>
@@ -1305,10 +1681,10 @@
       <c r="C35" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="D35" s="4">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F35" s="4" t="s">
@@ -1321,7 +1697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>8</v>
       </c>
@@ -1331,10 +1707,10 @@
       <c r="C36" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E36" s="4" t="s">
+      <c r="D36" s="4">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F36" s="4" t="s">
@@ -1347,7 +1723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>13</v>
       </c>
@@ -1357,10 +1733,10 @@
       <c r="C37" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E37" s="4" t="s">
+      <c r="D37" s="4">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -1373,7 +1749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>8</v>
       </c>
@@ -1383,10 +1759,10 @@
       <c r="C38" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="4" t="n">
+      <c r="D38" s="4">
         <v>2</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F38" s="4" t="s">
@@ -1399,7 +1775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>13</v>
       </c>
@@ -1409,10 +1785,10 @@
       <c r="C39" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="4" t="n">
+      <c r="D39" s="4">
         <v>2</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F39" s="4" t="s">
@@ -1425,7 +1801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>8</v>
       </c>
@@ -1435,10 +1811,10 @@
       <c r="C40" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E40" s="4" t="s">
+      <c r="D40" s="4">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F40" s="4" t="s">
@@ -1451,7 +1827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>13</v>
       </c>
@@ -1461,10 +1837,10 @@
       <c r="C41" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E41" s="4" t="s">
+      <c r="D41" s="4">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F41" s="4" t="s">
@@ -1477,7 +1853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>8</v>
       </c>
@@ -1487,10 +1863,10 @@
       <c r="C42" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E42" s="4" t="s">
+      <c r="D42" s="4">
+        <v>3</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F42" s="4" t="s">
@@ -1503,7 +1879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>13</v>
       </c>
@@ -1513,10 +1889,10 @@
       <c r="C43" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E43" s="4" t="s">
+      <c r="D43" s="4">
+        <v>3</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F43" s="4" t="s">
@@ -1529,13 +1905,558 @@
         <v>12</v>
       </c>
     </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="4">
+        <v>3</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="4">
+        <v>3</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="4">
+        <v>3</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="4">
+        <v>2</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="4">
+        <v>3</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" s="4">
+        <v>3</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="4">
+        <v>3</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="4">
+        <v>2</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="4">
+        <v>3</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="4">
+        <v>3</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57" s="4">
+        <v>3</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59" s="4">
+        <v>2</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" s="4">
+        <v>3</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" s="4">
+        <v>3</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63" s="4">
+        <v>3</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="4">
+        <v>3</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <autoFilter ref="A1:A64">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="ara"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>